--- a/GATEWAY/A1#111SOLXX/SOL_SPA/BIOMANAGEMENT/V.3.1.0/accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111SOLXX/SOL_SPA/BIOMANAGEMENT/V.3.1.0/accreditamento-checklist_V8.1.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\GitHubDev\FSE\Documentazione\Test Case - RSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\GitHubDev\FSE\GATEWAY\A1#111SOLXX\SOL_SPA\BIOMANAGEMENT\V.3.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D5A2EF-D0EA-4474-8EE4-0B01FF081E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F025923-DA50-48E0-B685-A57238877E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="1275" windowWidth="27225" windowHeight="18195" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="891">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -717,6 +717,9 @@
     <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CERT_VAC_KO</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -759,7 +762,7 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CERT_VAC_KO</t>
+    <t>VALIDAZIONE_TOKEN_JWT_SING_VAC_KO</t>
   </si>
   <si>
     <r>
@@ -804,7 +807,7 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_SING_VAC_KO</t>
+    <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
   </si>
   <si>
     <r>
@@ -849,51 +852,6 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Precondizioni:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
-    </r>
-  </si>
-  <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LAB_KO</t>
   </si>
   <si>
@@ -1077,6 +1035,9 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1119,7 +1080,7 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_SING_VAC_KO</t>
   </si>
   <si>
     <r>
@@ -1164,7 +1125,7 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_SING_VAC_KO</t>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_VPS_KO</t>
   </si>
   <si>
     <r>
@@ -1209,51 +1170,6 @@
     </r>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_VPS_KO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Precondizioni:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
-    </r>
-  </si>
-  <si>
     <t>VALIDAZIONE_LAB_TIMEOUT</t>
   </si>
   <si>
@@ -4605,9 +4521,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>b94e418d-19a0-11ef-a397-005056ae54fa</t>
-  </si>
-  <si>
     <t>Gestito dal supporto tecnico.</t>
   </si>
   <si>
@@ -4623,12 +4536,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.049cda660e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2724b48b23fb3430</t>
-  </si>
-  <si>
-    <t>Person id presente nel JWT differente dal codice fiscale del paziente previsto sul CDA</t>
-  </si>
-  <si>
     <t>Token JWT non valido</t>
   </si>
   <si>
@@ -4695,12 +4602,6 @@
     <t>2024-05-24T10:50:00+0200</t>
   </si>
   <si>
-    <t>2024-05-24T17:03:00+0200</t>
-  </si>
-  <si>
-    <t>2024-05-24T10:05:00+0200</t>
-  </si>
-  <si>
     <t>4bc18456069ce6a8</t>
   </si>
   <si>
@@ -4711,6 +4612,24 @@
   </si>
   <si>
     <t>2024-05-24T16:56:00+0200</t>
+  </si>
+  <si>
+    <t>2024-05-28T22:13:00+0200</t>
+  </si>
+  <si>
+    <t>9a8e658a76a8011d</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>4787a324db76ce4f</t>
+  </si>
+  <si>
+    <t>2024-05-28T22:17:00+0200</t>
+  </si>
+  <si>
+    <t>action_id non valido</t>
   </si>
 </sst>
 </file>
@@ -5149,6 +5068,24 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5170,24 +5107,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7657,7 +7576,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:B5"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7696,14 +7615,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
-        <v>852</v>
-      </c>
-      <c r="D2" s="38"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45" t="s">
+        <v>850</v>
+      </c>
+      <c r="D2" s="44"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7721,14 +7640,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="46" t="s">
-        <v>850</v>
-      </c>
-      <c r="D3" s="38"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="52" t="s">
+        <v>848</v>
+      </c>
+      <c r="D3" s="44"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7746,12 +7665,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="46" t="s">
-        <v>849</v>
-      </c>
-      <c r="D4" s="38"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="52" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4" s="44"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7770,12 +7689,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
-        <v>851</v>
-      </c>
-      <c r="D5" s="38"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
+        <v>849</v>
+      </c>
+      <c r="D5" s="44"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7793,8 +7712,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -8911,38 +8830,38 @@
         <v>113</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F39" s="33">
-        <v>45436</v>
+        <v>45440</v>
       </c>
       <c r="G39" s="34" t="s">
+        <v>885</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>886</v>
+      </c>
+      <c r="I39" s="38" t="s">
         <v>887</v>
       </c>
-      <c r="H39" s="50" t="s">
-        <v>856</v>
-      </c>
-      <c r="I39" s="50" t="s">
-        <v>855</v>
-      </c>
       <c r="J39" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="K39" s="51"/>
+        <v>137</v>
+      </c>
+      <c r="K39" s="39"/>
       <c r="L39" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M39" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="N39" s="51" t="s">
-        <v>864</v>
-      </c>
-      <c r="O39" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="P39" s="51" t="s">
-        <v>857</v>
+        <v>846</v>
+      </c>
+      <c r="N39" s="39" t="s">
+        <v>859</v>
+      </c>
+      <c r="O39" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="P39" s="39" t="s">
+        <v>854</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -8962,10 +8881,10 @@
         <v>75</v>
       </c>
       <c r="D40" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="24"/>
@@ -8996,10 +8915,10 @@
         <v>84</v>
       </c>
       <c r="D41" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="22" t="s">
         <v>117</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>118</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="24"/>
@@ -9030,10 +8949,10 @@
         <v>93</v>
       </c>
       <c r="D42" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="22" t="s">
         <v>119</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>120</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="24"/>
@@ -9064,10 +8983,10 @@
         <v>45</v>
       </c>
       <c r="D43" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="22" t="s">
         <v>121</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>122</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="24"/>
@@ -9098,10 +9017,10 @@
         <v>57</v>
       </c>
       <c r="D44" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>124</v>
       </c>
       <c r="F44" s="23"/>
       <c r="G44" s="24"/>
@@ -9132,10 +9051,10 @@
         <v>107</v>
       </c>
       <c r="D45" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="24"/>
@@ -9166,10 +9085,10 @@
         <v>66</v>
       </c>
       <c r="D46" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="F46" s="23"/>
       <c r="G46" s="24"/>
@@ -9200,41 +9119,41 @@
         <v>112</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F47" s="33">
-        <v>45436</v>
+        <v>45440</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>886</v>
-      </c>
-      <c r="H47" s="50" t="s">
-        <v>862</v>
-      </c>
-      <c r="I47" s="50" t="s">
-        <v>855</v>
+        <v>889</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>888</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>887</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="K47" s="51"/>
+        <v>137</v>
+      </c>
+      <c r="K47" s="39"/>
       <c r="L47" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M47" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="N47" s="51" t="s">
-        <v>863</v>
-      </c>
-      <c r="O47" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="P47" s="51" t="s">
-        <v>857</v>
+        <v>846</v>
+      </c>
+      <c r="N47" s="39" t="s">
+        <v>890</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="P47" s="39" t="s">
+        <v>854</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
@@ -9254,10 +9173,10 @@
         <v>75</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="24"/>
@@ -9288,10 +9207,10 @@
         <v>84</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F49" s="23"/>
       <c r="G49" s="24"/>
@@ -9322,10 +9241,10 @@
         <v>93</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F50" s="23"/>
       <c r="G50" s="24"/>
@@ -9356,10 +9275,10 @@
         <v>45</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F51" s="23"/>
       <c r="G51" s="24"/>
@@ -9374,7 +9293,7 @@
       <c r="P51" s="25"/>
       <c r="Q51" s="25"/>
       <c r="R51" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S51" s="27"/>
       <c r="T51" s="28" t="s">
@@ -9392,10 +9311,10 @@
         <v>57</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F52" s="23"/>
       <c r="G52" s="24"/>
@@ -9410,7 +9329,7 @@
       <c r="P52" s="25"/>
       <c r="Q52" s="25"/>
       <c r="R52" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S52" s="27"/>
       <c r="T52" s="28" t="s">
@@ -9428,10 +9347,10 @@
         <v>107</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F53" s="23"/>
       <c r="G53" s="24"/>
@@ -9446,7 +9365,7 @@
       <c r="P53" s="25"/>
       <c r="Q53" s="25"/>
       <c r="R53" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S53" s="27"/>
       <c r="T53" s="28" t="s">
@@ -9464,10 +9383,10 @@
         <v>66</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F54" s="23"/>
       <c r="G54" s="24"/>
@@ -9482,7 +9401,7 @@
       <c r="P54" s="25"/>
       <c r="Q54" s="25"/>
       <c r="R54" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S54" s="27"/>
       <c r="T54" s="28" t="s">
@@ -9500,41 +9419,41 @@
         <v>112</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F55" s="23">
         <v>45436</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>885</v>
-      </c>
-      <c r="H55" s="50" t="s">
+        <v>880</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="I55" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="K55" s="39"/>
+      <c r="L55" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="M55" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="N55" s="39" t="s">
         <v>855</v>
       </c>
-      <c r="I55" s="50" t="s">
-        <v>855</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K55" s="51"/>
-      <c r="L55" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="M55" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="N55" s="51" t="s">
-        <v>858</v>
-      </c>
-      <c r="O55" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="P55" s="51" t="s">
-        <v>859</v>
+      <c r="O55" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="P55" s="39" t="s">
+        <v>856</v>
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26"/>
@@ -9554,10 +9473,10 @@
         <v>75</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F56" s="23"/>
       <c r="G56" s="24"/>
@@ -9572,7 +9491,7 @@
       <c r="P56" s="25"/>
       <c r="Q56" s="25"/>
       <c r="R56" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S56" s="27"/>
       <c r="T56" s="28" t="s">
@@ -9590,10 +9509,10 @@
         <v>84</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F57" s="23"/>
       <c r="G57" s="24"/>
@@ -9608,7 +9527,7 @@
       <c r="P57" s="25"/>
       <c r="Q57" s="25"/>
       <c r="R57" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S57" s="27"/>
       <c r="T57" s="28" t="s">
@@ -9626,10 +9545,10 @@
         <v>93</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F58" s="23"/>
       <c r="G58" s="24"/>
@@ -9644,7 +9563,7 @@
       <c r="P58" s="25"/>
       <c r="Q58" s="25"/>
       <c r="R58" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S58" s="27"/>
       <c r="T58" s="28" t="s">
@@ -9662,10 +9581,10 @@
         <v>45</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="24"/>
@@ -9696,10 +9615,10 @@
         <v>45</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="24"/>
@@ -9730,10 +9649,10 @@
         <v>45</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="24"/>
@@ -9764,10 +9683,10 @@
         <v>45</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="24"/>
@@ -9798,10 +9717,10 @@
         <v>45</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="24"/>
@@ -9832,10 +9751,10 @@
         <v>45</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="24"/>
@@ -9866,10 +9785,10 @@
         <v>45</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="24"/>
@@ -9900,10 +9819,10 @@
         <v>45</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="24"/>
@@ -9934,10 +9853,10 @@
         <v>45</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="24"/>
@@ -9968,10 +9887,10 @@
         <v>45</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="24"/>
@@ -10002,10 +9921,10 @@
         <v>45</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="24"/>
@@ -10036,10 +9955,10 @@
         <v>57</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="24"/>
@@ -10070,10 +9989,10 @@
         <v>57</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="24"/>
@@ -10104,10 +10023,10 @@
         <v>57</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="24"/>
@@ -10138,10 +10057,10 @@
         <v>57</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="24"/>
@@ -10172,10 +10091,10 @@
         <v>57</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F74" s="23"/>
       <c r="G74" s="24"/>
@@ -10206,10 +10125,10 @@
         <v>57</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F75" s="23"/>
       <c r="G75" s="24"/>
@@ -10240,10 +10159,10 @@
         <v>57</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F76" s="23"/>
       <c r="G76" s="24"/>
@@ -10274,10 +10193,10 @@
         <v>57</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" s="24"/>
@@ -10308,10 +10227,10 @@
         <v>57</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F78" s="23"/>
       <c r="G78" s="24"/>
@@ -10342,10 +10261,10 @@
         <v>57</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F79" s="23"/>
       <c r="G79" s="24"/>
@@ -10376,10 +10295,10 @@
         <v>57</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F80" s="23"/>
       <c r="G80" s="24"/>
@@ -10410,10 +10329,10 @@
         <v>57</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F81" s="23"/>
       <c r="G81" s="24"/>
@@ -10444,10 +10363,10 @@
         <v>66</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F82" s="23"/>
       <c r="G82" s="24"/>
@@ -10478,10 +10397,10 @@
         <v>66</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="24"/>
@@ -10512,10 +10431,10 @@
         <v>66</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="24"/>
@@ -10546,10 +10465,10 @@
         <v>66</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F85" s="23"/>
       <c r="G85" s="24"/>
@@ -10580,10 +10499,10 @@
         <v>66</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F86" s="23"/>
       <c r="G86" s="24"/>
@@ -10614,10 +10533,10 @@
         <v>66</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F87" s="23"/>
       <c r="G87" s="24"/>
@@ -10648,10 +10567,10 @@
         <v>66</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F88" s="23"/>
       <c r="G88" s="24"/>
@@ -10682,10 +10601,10 @@
         <v>66</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F89" s="23"/>
       <c r="G89" s="24"/>
@@ -10716,10 +10635,10 @@
         <v>66</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F90" s="23"/>
       <c r="G90" s="24"/>
@@ -10750,10 +10669,10 @@
         <v>66</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F91" s="23"/>
       <c r="G91" s="24"/>
@@ -10784,10 +10703,10 @@
         <v>66</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F92" s="23"/>
       <c r="G92" s="24"/>
@@ -10818,10 +10737,10 @@
         <v>66</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F93" s="23"/>
       <c r="G93" s="24"/>
@@ -10852,10 +10771,10 @@
         <v>66</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="24"/>
@@ -10886,10 +10805,10 @@
         <v>66</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F95" s="23"/>
       <c r="G95" s="24"/>
@@ -10920,10 +10839,10 @@
         <v>66</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="24"/>
@@ -10954,10 +10873,10 @@
         <v>66</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F97" s="23"/>
       <c r="G97" s="24"/>
@@ -10988,10 +10907,10 @@
         <v>66</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F98" s="23"/>
       <c r="G98" s="24"/>
@@ -11022,10 +10941,10 @@
         <v>66</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F99" s="23"/>
       <c r="G99" s="24"/>
@@ -11056,10 +10975,10 @@
         <v>66</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F100" s="23"/>
       <c r="G100" s="24"/>
@@ -11090,10 +11009,10 @@
         <v>75</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F101" s="23"/>
       <c r="G101" s="24"/>
@@ -11124,10 +11043,10 @@
         <v>75</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F102" s="23"/>
       <c r="G102" s="24"/>
@@ -11158,10 +11077,10 @@
         <v>75</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F103" s="23"/>
       <c r="G103" s="24"/>
@@ -11192,10 +11111,10 @@
         <v>75</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="24"/>
@@ -11226,10 +11145,10 @@
         <v>75</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="24"/>
@@ -11260,10 +11179,10 @@
         <v>75</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="24"/>
@@ -11294,10 +11213,10 @@
         <v>75</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="24"/>
@@ -11328,10 +11247,10 @@
         <v>75</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="24"/>
@@ -11362,10 +11281,10 @@
         <v>75</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="24"/>
@@ -11396,10 +11315,10 @@
         <v>75</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="24"/>
@@ -11430,10 +11349,10 @@
         <v>75</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F111" s="23"/>
       <c r="G111" s="24"/>
@@ -11464,10 +11383,10 @@
         <v>75</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F112" s="23"/>
       <c r="G112" s="24"/>
@@ -11498,10 +11417,10 @@
         <v>75</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F113" s="23"/>
       <c r="G113" s="24"/>
@@ -11532,10 +11451,10 @@
         <v>84</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="24"/>
@@ -11566,10 +11485,10 @@
         <v>84</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F115" s="23"/>
       <c r="G115" s="24"/>
@@ -11600,10 +11519,10 @@
         <v>84</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F116" s="23"/>
       <c r="G116" s="24"/>
@@ -11634,10 +11553,10 @@
         <v>84</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F117" s="23"/>
       <c r="G117" s="24"/>
@@ -11668,10 +11587,10 @@
         <v>84</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F118" s="23"/>
       <c r="G118" s="24"/>
@@ -11702,10 +11621,10 @@
         <v>84</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F119" s="23"/>
       <c r="G119" s="24"/>
@@ -11736,10 +11655,10 @@
         <v>84</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="24"/>
@@ -11770,10 +11689,10 @@
         <v>84</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F121" s="23"/>
       <c r="G121" s="24"/>
@@ -11804,10 +11723,10 @@
         <v>84</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F122" s="23"/>
       <c r="G122" s="24"/>
@@ -11838,10 +11757,10 @@
         <v>84</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F123" s="23"/>
       <c r="G123" s="24"/>
@@ -11872,10 +11791,10 @@
         <v>84</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F124" s="23"/>
       <c r="G124" s="24"/>
@@ -11906,10 +11825,10 @@
         <v>84</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F125" s="23"/>
       <c r="G125" s="24"/>
@@ -11940,10 +11859,10 @@
         <v>84</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="24"/>
@@ -11974,10 +11893,10 @@
         <v>84</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F127" s="23"/>
       <c r="G127" s="24"/>
@@ -12008,10 +11927,10 @@
         <v>84</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F128" s="23"/>
       <c r="G128" s="24"/>
@@ -12042,10 +11961,10 @@
         <v>93</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E129" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F129" s="23"/>
       <c r="G129" s="24"/>
@@ -12076,10 +11995,10 @@
         <v>93</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E130" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F130" s="23"/>
       <c r="G130" s="24"/>
@@ -12110,10 +12029,10 @@
         <v>93</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F131" s="23"/>
       <c r="G131" s="24"/>
@@ -12144,10 +12063,10 @@
         <v>93</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E132" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="24"/>
@@ -12178,10 +12097,10 @@
         <v>93</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F133" s="23"/>
       <c r="G133" s="24"/>
@@ -12212,10 +12131,10 @@
         <v>93</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F134" s="23"/>
       <c r="G134" s="24"/>
@@ -12246,10 +12165,10 @@
         <v>93</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E135" s="22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F135" s="23"/>
       <c r="G135" s="24"/>
@@ -12280,10 +12199,10 @@
         <v>93</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E136" s="22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F136" s="23"/>
       <c r="G136" s="24"/>
@@ -12314,10 +12233,10 @@
         <v>93</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F137" s="23"/>
       <c r="G137" s="24"/>
@@ -12348,10 +12267,10 @@
         <v>93</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F138" s="23"/>
       <c r="G138" s="24"/>
@@ -12382,10 +12301,10 @@
         <v>93</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F139" s="23"/>
       <c r="G139" s="24"/>
@@ -12416,10 +12335,10 @@
         <v>93</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F140" s="23"/>
       <c r="G140" s="24"/>
@@ -12450,10 +12369,10 @@
         <v>93</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F141" s="23"/>
       <c r="G141" s="24"/>
@@ -12484,10 +12403,10 @@
         <v>93</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F142" s="23"/>
       <c r="G142" s="24"/>
@@ -12518,10 +12437,10 @@
         <v>93</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F143" s="23"/>
       <c r="G143" s="24"/>
@@ -12552,10 +12471,10 @@
         <v>93</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E144" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F144" s="23"/>
       <c r="G144" s="24"/>
@@ -12586,10 +12505,10 @@
         <v>93</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F145" s="23"/>
       <c r="G145" s="24"/>
@@ -12620,10 +12539,10 @@
         <v>93</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E146" s="22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F146" s="23"/>
       <c r="G146" s="24"/>
@@ -12654,10 +12573,10 @@
         <v>93</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F147" s="23"/>
       <c r="G147" s="24"/>
@@ -12688,10 +12607,10 @@
         <v>93</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E148" s="22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F148" s="23"/>
       <c r="G148" s="24"/>
@@ -12722,10 +12641,10 @@
         <v>93</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E149" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F149" s="23"/>
       <c r="G149" s="24"/>
@@ -12756,10 +12675,10 @@
         <v>93</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E150" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F150" s="23"/>
       <c r="G150" s="24"/>
@@ -12790,10 +12709,10 @@
         <v>93</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E151" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F151" s="23"/>
       <c r="G151" s="24"/>
@@ -12824,10 +12743,10 @@
         <v>93</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E152" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F152" s="23"/>
       <c r="G152" s="24"/>
@@ -12858,10 +12777,10 @@
         <v>93</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E153" s="22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F153" s="23"/>
       <c r="G153" s="24"/>
@@ -12882,40 +12801,40 @@
       </c>
     </row>
     <row r="154" spans="1:20" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="47">
+      <c r="A154" s="35">
         <v>147</v>
       </c>
-      <c r="B154" s="48" t="s">
+      <c r="B154" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C154" s="48" t="s">
+      <c r="C154" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D154" s="49" t="s">
-        <v>337</v>
+      <c r="D154" s="37" t="s">
+        <v>335</v>
       </c>
       <c r="E154" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F154" s="33">
         <v>45436</v>
       </c>
       <c r="G154" s="34" t="s">
-        <v>884</v>
-      </c>
-      <c r="H154" s="50" t="s">
-        <v>853</v>
-      </c>
-      <c r="I154" s="50" t="s">
-        <v>854</v>
+        <v>879</v>
+      </c>
+      <c r="H154" s="38" t="s">
+        <v>851</v>
+      </c>
+      <c r="I154" s="38" t="s">
+        <v>852</v>
       </c>
       <c r="J154" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K154" s="25"/>
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
-      <c r="N154" s="51"/>
+      <c r="N154" s="39"/>
       <c r="O154" s="25"/>
       <c r="P154" s="25"/>
       <c r="Q154" s="25"/>
@@ -12926,40 +12845,40 @@
       </c>
     </row>
     <row r="155" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="47">
+      <c r="A155" s="35">
         <v>148</v>
       </c>
-      <c r="B155" s="48" t="s">
+      <c r="B155" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C155" s="48" t="s">
+      <c r="C155" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D155" s="48" t="s">
-        <v>339</v>
+      <c r="D155" s="36" t="s">
+        <v>337</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F155" s="33">
         <v>45437</v>
       </c>
       <c r="G155" s="34" t="s">
-        <v>882</v>
-      </c>
-      <c r="H155" s="50" t="s">
-        <v>880</v>
-      </c>
-      <c r="I155" s="50" t="s">
-        <v>881</v>
+        <v>877</v>
+      </c>
+      <c r="H155" s="38" t="s">
+        <v>875</v>
+      </c>
+      <c r="I155" s="38" t="s">
+        <v>876</v>
       </c>
       <c r="J155" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K155" s="25"/>
       <c r="L155" s="25"/>
       <c r="M155" s="25"/>
-      <c r="N155" s="51"/>
+      <c r="N155" s="39"/>
       <c r="O155" s="25"/>
       <c r="P155" s="25"/>
       <c r="Q155" s="25"/>
@@ -12970,40 +12889,40 @@
       </c>
     </row>
     <row r="156" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="47">
+      <c r="A156" s="35">
         <v>149</v>
       </c>
-      <c r="B156" s="48" t="s">
+      <c r="B156" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C156" s="48" t="s">
+      <c r="C156" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D156" s="48" t="s">
-        <v>341</v>
+      <c r="D156" s="36" t="s">
+        <v>339</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F156" s="33">
         <v>45436</v>
       </c>
       <c r="G156" s="34" t="s">
-        <v>883</v>
-      </c>
-      <c r="H156" s="50" t="s">
         <v>878</v>
       </c>
-      <c r="I156" s="50" t="s">
-        <v>879</v>
+      <c r="H156" s="38" t="s">
+        <v>873</v>
+      </c>
+      <c r="I156" s="38" t="s">
+        <v>874</v>
       </c>
       <c r="J156" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K156" s="25"/>
       <c r="L156" s="25"/>
       <c r="M156" s="25"/>
-      <c r="N156" s="51"/>
+      <c r="N156" s="39"/>
       <c r="O156" s="25"/>
       <c r="P156" s="25"/>
       <c r="Q156" s="25"/>
@@ -13014,40 +12933,40 @@
       </c>
     </row>
     <row r="157" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="47">
+      <c r="A157" s="35">
         <v>150</v>
       </c>
-      <c r="B157" s="48" t="s">
+      <c r="B157" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C157" s="48" t="s">
+      <c r="C157" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D157" s="48" t="s">
-        <v>343</v>
+      <c r="D157" s="36" t="s">
+        <v>341</v>
       </c>
       <c r="E157" s="22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F157" s="33">
         <v>45437</v>
       </c>
       <c r="G157" s="34" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="H157" s="24" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="I157" s="24" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="J157" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K157" s="25"/>
       <c r="L157" s="25"/>
       <c r="M157" s="25"/>
-      <c r="N157" s="51"/>
+      <c r="N157" s="39"/>
       <c r="O157" s="25"/>
       <c r="P157" s="25"/>
       <c r="Q157" s="25"/>
@@ -13068,24 +12987,24 @@
         <v>112</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E158" s="22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F158" s="23"/>
       <c r="G158" s="24"/>
       <c r="H158" s="24"/>
       <c r="I158" s="24"/>
       <c r="J158" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K158" s="51" t="s">
-        <v>865</v>
+        <v>846</v>
+      </c>
+      <c r="K158" s="39" t="s">
+        <v>860</v>
       </c>
       <c r="L158" s="25"/>
       <c r="M158" s="25"/>
-      <c r="N158" s="51"/>
+      <c r="N158" s="39"/>
       <c r="O158" s="25"/>
       <c r="P158" s="25"/>
       <c r="Q158" s="25"/>
@@ -13106,24 +13025,24 @@
         <v>112</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E159" s="22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F159" s="23"/>
       <c r="G159" s="24"/>
       <c r="H159" s="24"/>
       <c r="I159" s="24"/>
       <c r="J159" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K159" s="51" t="s">
-        <v>866</v>
+        <v>846</v>
+      </c>
+      <c r="K159" s="39" t="s">
+        <v>861</v>
       </c>
       <c r="L159" s="25"/>
       <c r="M159" s="25"/>
-      <c r="N159" s="51"/>
+      <c r="N159" s="39"/>
       <c r="O159" s="25"/>
       <c r="P159" s="25"/>
       <c r="Q159" s="25"/>
@@ -13144,24 +13063,24 @@
         <v>112</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E160" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F160" s="23"/>
       <c r="G160" s="24"/>
       <c r="H160" s="24"/>
       <c r="I160" s="24"/>
       <c r="J160" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K160" s="51" t="s">
-        <v>867</v>
+        <v>846</v>
+      </c>
+      <c r="K160" s="39" t="s">
+        <v>862</v>
       </c>
       <c r="L160" s="25"/>
       <c r="M160" s="25"/>
-      <c r="N160" s="51"/>
+      <c r="N160" s="39"/>
       <c r="O160" s="25"/>
       <c r="P160" s="25"/>
       <c r="Q160" s="25"/>
@@ -13182,24 +13101,24 @@
         <v>112</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E161" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F161" s="23"/>
       <c r="G161" s="24"/>
       <c r="H161" s="24"/>
       <c r="I161" s="24"/>
       <c r="J161" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K161" s="51" t="s">
-        <v>868</v>
+        <v>846</v>
+      </c>
+      <c r="K161" s="39" t="s">
+        <v>863</v>
       </c>
       <c r="L161" s="25"/>
       <c r="M161" s="25"/>
-      <c r="N161" s="51"/>
+      <c r="N161" s="39"/>
       <c r="O161" s="25"/>
       <c r="P161" s="25"/>
       <c r="Q161" s="25"/>
@@ -13220,24 +13139,24 @@
         <v>112</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E162" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F162" s="23"/>
       <c r="G162" s="24"/>
       <c r="H162" s="24"/>
       <c r="I162" s="24"/>
       <c r="J162" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K162" s="51" t="s">
-        <v>869</v>
+        <v>846</v>
+      </c>
+      <c r="K162" s="39" t="s">
+        <v>864</v>
       </c>
       <c r="L162" s="25"/>
       <c r="M162" s="25"/>
-      <c r="N162" s="51"/>
+      <c r="N162" s="39"/>
       <c r="O162" s="25"/>
       <c r="P162" s="25"/>
       <c r="Q162" s="25"/>
@@ -13258,24 +13177,24 @@
         <v>112</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E163" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F163" s="23"/>
       <c r="G163" s="24"/>
       <c r="H163" s="24"/>
       <c r="I163" s="24"/>
       <c r="J163" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K163" s="51" t="s">
-        <v>870</v>
+        <v>846</v>
+      </c>
+      <c r="K163" s="39" t="s">
+        <v>865</v>
       </c>
       <c r="L163" s="25"/>
       <c r="M163" s="25"/>
-      <c r="N163" s="51"/>
+      <c r="N163" s="39"/>
       <c r="O163" s="25"/>
       <c r="P163" s="25"/>
       <c r="Q163" s="25"/>
@@ -13296,24 +13215,24 @@
         <v>112</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E164" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F164" s="23"/>
       <c r="G164" s="24"/>
       <c r="H164" s="24"/>
       <c r="I164" s="24"/>
       <c r="J164" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K164" s="51" t="s">
-        <v>871</v>
+        <v>846</v>
+      </c>
+      <c r="K164" s="39" t="s">
+        <v>866</v>
       </c>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
-      <c r="N164" s="51"/>
+      <c r="N164" s="39"/>
       <c r="O164" s="25"/>
       <c r="P164" s="25"/>
       <c r="Q164" s="25"/>
@@ -13334,24 +13253,24 @@
         <v>112</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E165" s="22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F165" s="23"/>
       <c r="G165" s="24"/>
       <c r="H165" s="24"/>
       <c r="I165" s="24"/>
       <c r="J165" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K165" s="51" t="s">
-        <v>872</v>
+        <v>846</v>
+      </c>
+      <c r="K165" s="39" t="s">
+        <v>867</v>
       </c>
       <c r="L165" s="25"/>
       <c r="M165" s="25"/>
-      <c r="N165" s="51"/>
+      <c r="N165" s="39"/>
       <c r="O165" s="25"/>
       <c r="P165" s="25"/>
       <c r="Q165" s="25"/>
@@ -13372,24 +13291,24 @@
         <v>112</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E166" s="22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F166" s="23"/>
       <c r="G166" s="24"/>
       <c r="H166" s="24"/>
       <c r="I166" s="24"/>
       <c r="J166" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K166" s="51" t="s">
-        <v>873</v>
+        <v>846</v>
+      </c>
+      <c r="K166" s="39" t="s">
+        <v>868</v>
       </c>
       <c r="L166" s="25"/>
       <c r="M166" s="25"/>
-      <c r="N166" s="51"/>
+      <c r="N166" s="39"/>
       <c r="O166" s="25"/>
       <c r="P166" s="25"/>
       <c r="Q166" s="25"/>
@@ -13410,24 +13329,24 @@
         <v>112</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F167" s="23"/>
       <c r="G167" s="24"/>
       <c r="H167" s="24"/>
       <c r="I167" s="24"/>
       <c r="J167" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K167" s="51" t="s">
-        <v>874</v>
+        <v>846</v>
+      </c>
+      <c r="K167" s="39" t="s">
+        <v>869</v>
       </c>
       <c r="L167" s="25"/>
       <c r="M167" s="25"/>
-      <c r="N167" s="51"/>
+      <c r="N167" s="39"/>
       <c r="O167" s="25"/>
       <c r="P167" s="25"/>
       <c r="Q167" s="25"/>
@@ -13448,24 +13367,24 @@
         <v>112</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F168" s="23"/>
       <c r="G168" s="24"/>
       <c r="H168" s="24"/>
       <c r="I168" s="24"/>
       <c r="J168" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K168" s="51" t="s">
-        <v>875</v>
+        <v>846</v>
+      </c>
+      <c r="K168" s="39" t="s">
+        <v>870</v>
       </c>
       <c r="L168" s="25"/>
       <c r="M168" s="25"/>
-      <c r="N168" s="51"/>
+      <c r="N168" s="39"/>
       <c r="O168" s="25"/>
       <c r="P168" s="25"/>
       <c r="Q168" s="25"/>
@@ -13486,24 +13405,24 @@
         <v>112</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E169" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F169" s="23"/>
       <c r="G169" s="24"/>
       <c r="H169" s="24"/>
       <c r="I169" s="24"/>
       <c r="J169" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K169" s="51" t="s">
-        <v>876</v>
+        <v>846</v>
+      </c>
+      <c r="K169" s="39" t="s">
+        <v>871</v>
       </c>
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
-      <c r="N169" s="51"/>
+      <c r="N169" s="39"/>
       <c r="O169" s="25"/>
       <c r="P169" s="25"/>
       <c r="Q169" s="25"/>
@@ -13524,24 +13443,24 @@
         <v>112</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E170" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="24"/>
       <c r="H170" s="24"/>
       <c r="I170" s="24"/>
       <c r="J170" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K170" s="51" t="s">
-        <v>874</v>
+        <v>846</v>
+      </c>
+      <c r="K170" s="39" t="s">
+        <v>869</v>
       </c>
       <c r="L170" s="25"/>
       <c r="M170" s="25"/>
-      <c r="N170" s="51"/>
+      <c r="N170" s="39"/>
       <c r="O170" s="25"/>
       <c r="P170" s="25"/>
       <c r="Q170" s="25"/>
@@ -13562,24 +13481,24 @@
         <v>112</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E171" s="22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F171" s="23"/>
       <c r="G171" s="24"/>
       <c r="H171" s="24"/>
       <c r="I171" s="24"/>
       <c r="J171" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K171" s="51" t="s">
-        <v>876</v>
+        <v>846</v>
+      </c>
+      <c r="K171" s="39" t="s">
+        <v>871</v>
       </c>
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
-      <c r="N171" s="51"/>
+      <c r="N171" s="39"/>
       <c r="O171" s="25"/>
       <c r="P171" s="25"/>
       <c r="Q171" s="25"/>
@@ -13600,24 +13519,24 @@
         <v>112</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E172" s="22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F172" s="23"/>
       <c r="G172" s="24"/>
       <c r="H172" s="24"/>
       <c r="I172" s="24"/>
       <c r="J172" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K172" s="51" t="s">
-        <v>876</v>
+        <v>846</v>
+      </c>
+      <c r="K172" s="39" t="s">
+        <v>871</v>
       </c>
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
-      <c r="N172" s="51"/>
+      <c r="N172" s="39"/>
       <c r="O172" s="25"/>
       <c r="P172" s="25"/>
       <c r="Q172" s="25"/>
@@ -13638,24 +13557,24 @@
         <v>112</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E173" s="22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F173" s="23"/>
       <c r="G173" s="24"/>
       <c r="H173" s="24"/>
       <c r="I173" s="24"/>
       <c r="J173" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K173" s="51" t="s">
-        <v>876</v>
+        <v>846</v>
+      </c>
+      <c r="K173" s="39" t="s">
+        <v>871</v>
       </c>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
-      <c r="N173" s="51"/>
+      <c r="N173" s="39"/>
       <c r="O173" s="25"/>
       <c r="P173" s="25"/>
       <c r="Q173" s="25"/>
@@ -13676,24 +13595,24 @@
         <v>112</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E174" s="22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F174" s="23"/>
       <c r="G174" s="24"/>
       <c r="H174" s="24"/>
       <c r="I174" s="24"/>
       <c r="J174" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K174" s="51" t="s">
-        <v>876</v>
+        <v>846</v>
+      </c>
+      <c r="K174" s="39" t="s">
+        <v>871</v>
       </c>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
-      <c r="N174" s="51"/>
+      <c r="N174" s="39"/>
       <c r="O174" s="25"/>
       <c r="P174" s="25"/>
       <c r="Q174" s="25"/>
@@ -13714,24 +13633,24 @@
         <v>112</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E175" s="22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F175" s="23"/>
       <c r="G175" s="24"/>
       <c r="H175" s="24"/>
       <c r="I175" s="24"/>
       <c r="J175" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K175" s="51" t="s">
-        <v>876</v>
+        <v>846</v>
+      </c>
+      <c r="K175" s="39" t="s">
+        <v>871</v>
       </c>
       <c r="L175" s="25"/>
       <c r="M175" s="25"/>
-      <c r="N175" s="51"/>
+      <c r="N175" s="39"/>
       <c r="O175" s="25"/>
       <c r="P175" s="25"/>
       <c r="Q175" s="25"/>
@@ -13752,24 +13671,24 @@
         <v>112</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E176" s="22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F176" s="23"/>
       <c r="G176" s="24"/>
       <c r="H176" s="24"/>
       <c r="I176" s="24"/>
       <c r="J176" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="K176" s="51" t="s">
-        <v>877</v>
+        <v>846</v>
+      </c>
+      <c r="K176" s="39" t="s">
+        <v>872</v>
       </c>
       <c r="L176" s="25"/>
       <c r="M176" s="25"/>
-      <c r="N176" s="51"/>
+      <c r="N176" s="39"/>
       <c r="O176" s="25"/>
       <c r="P176" s="25"/>
       <c r="Q176" s="25"/>
@@ -13790,10 +13709,10 @@
         <v>107</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E177" s="22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F177" s="23"/>
       <c r="G177" s="24"/>
@@ -13824,10 +13743,10 @@
         <v>107</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E178" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F178" s="23"/>
       <c r="G178" s="24"/>
@@ -13858,10 +13777,10 @@
         <v>107</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E179" s="22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F179" s="23"/>
       <c r="G179" s="24"/>
@@ -13892,10 +13811,10 @@
         <v>107</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E180" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F180" s="23"/>
       <c r="G180" s="24"/>
@@ -13926,10 +13845,10 @@
         <v>107</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E181" s="22" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F181" s="23"/>
       <c r="G181" s="24"/>
@@ -13960,10 +13879,10 @@
         <v>107</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E182" s="22" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F182" s="23"/>
       <c r="G182" s="24"/>
@@ -13994,10 +13913,10 @@
         <v>107</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E183" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F183" s="23"/>
       <c r="G183" s="24"/>
@@ -14028,10 +13947,10 @@
         <v>107</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E184" s="22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F184" s="23"/>
       <c r="G184" s="24"/>
@@ -14062,10 +13981,10 @@
         <v>107</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E185" s="22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F185" s="23"/>
       <c r="G185" s="24"/>
@@ -14096,10 +14015,10 @@
         <v>107</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E186" s="22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F186" s="23"/>
       <c r="G186" s="24"/>
@@ -14130,10 +14049,10 @@
         <v>107</v>
       </c>
       <c r="D187" s="21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E187" s="22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F187" s="23"/>
       <c r="G187" s="24"/>
@@ -14164,10 +14083,10 @@
         <v>107</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E188" s="22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F188" s="23"/>
       <c r="G188" s="24"/>
@@ -14198,10 +14117,10 @@
         <v>107</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E189" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F189" s="23"/>
       <c r="G189" s="24"/>
@@ -14232,10 +14151,10 @@
         <v>107</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E190" s="22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F190" s="23"/>
       <c r="G190" s="24"/>
@@ -14266,10 +14185,10 @@
         <v>107</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F191" s="23"/>
       <c r="G191" s="24"/>
@@ -14300,10 +14219,10 @@
         <v>107</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E192" s="22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F192" s="23"/>
       <c r="G192" s="24"/>
@@ -14334,10 +14253,10 @@
         <v>107</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E193" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F193" s="23"/>
       <c r="G193" s="24"/>
@@ -14368,10 +14287,10 @@
         <v>107</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E194" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F194" s="23"/>
       <c r="G194" s="24"/>
@@ -14402,10 +14321,10 @@
         <v>107</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E195" s="22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F195" s="23"/>
       <c r="G195" s="24"/>
@@ -14436,10 +14355,10 @@
         <v>107</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E196" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F196" s="23"/>
       <c r="G196" s="24"/>
@@ -14470,10 +14389,10 @@
         <v>107</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E197" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F197" s="23"/>
       <c r="G197" s="24"/>
@@ -14504,10 +14423,10 @@
         <v>45</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E198" s="22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F198" s="23"/>
       <c r="G198" s="24"/>
@@ -14532,16 +14451,16 @@
         <v>192</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C199" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E199" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F199" s="23"/>
       <c r="G199" s="24"/>
@@ -14566,16 +14485,16 @@
         <v>193</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C200" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E200" s="22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F200" s="23"/>
       <c r="G200" s="24"/>
@@ -14600,16 +14519,16 @@
         <v>194</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C201" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E201" s="22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F201" s="23"/>
       <c r="G201" s="24"/>
@@ -14634,16 +14553,16 @@
         <v>195</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C202" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D202" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E202" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F202" s="23"/>
       <c r="G202" s="24"/>
@@ -14668,16 +14587,16 @@
         <v>196</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C203" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E203" s="22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F203" s="23"/>
       <c r="G203" s="24"/>
@@ -14702,16 +14621,16 @@
         <v>197</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C204" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E204" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F204" s="23"/>
       <c r="G204" s="24"/>
@@ -14736,16 +14655,16 @@
         <v>198</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C205" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E205" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F205" s="23"/>
       <c r="G205" s="24"/>
@@ -14770,16 +14689,16 @@
         <v>199</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C206" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E206" s="22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F206" s="23"/>
       <c r="G206" s="24"/>
@@ -14804,16 +14723,16 @@
         <v>200</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C207" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E207" s="22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F207" s="23"/>
       <c r="G207" s="24"/>
@@ -14838,16 +14757,16 @@
         <v>201</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C208" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E208" s="22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F208" s="23"/>
       <c r="G208" s="24"/>
@@ -14872,16 +14791,16 @@
         <v>202</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C209" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E209" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F209" s="23"/>
       <c r="G209" s="24"/>
@@ -14906,16 +14825,16 @@
         <v>203</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C210" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E210" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F210" s="23"/>
       <c r="G210" s="24"/>
@@ -14940,16 +14859,16 @@
         <v>204</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C211" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E211" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F211" s="23"/>
       <c r="G211" s="24"/>
@@ -14974,16 +14893,16 @@
         <v>205</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C212" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E212" s="22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F212" s="23"/>
       <c r="G212" s="24"/>
@@ -15008,16 +14927,16 @@
         <v>206</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C213" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E213" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F213" s="23"/>
       <c r="G213" s="24"/>
@@ -15042,16 +14961,16 @@
         <v>207</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C214" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E214" s="22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F214" s="23"/>
       <c r="G214" s="24"/>
@@ -15076,16 +14995,16 @@
         <v>208</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C215" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E215" s="22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F215" s="23"/>
       <c r="G215" s="24"/>
@@ -15110,16 +15029,16 @@
         <v>209</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C216" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E216" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F216" s="23"/>
       <c r="G216" s="24"/>
@@ -15144,16 +15063,16 @@
         <v>210</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C217" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E217" s="22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F217" s="23"/>
       <c r="G217" s="24"/>
@@ -15178,16 +15097,16 @@
         <v>211</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E218" s="22" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F218" s="23"/>
       <c r="G218" s="24"/>
@@ -15212,16 +15131,16 @@
         <v>212</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C219" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F219" s="23"/>
       <c r="G219" s="24"/>
@@ -15246,16 +15165,16 @@
         <v>213</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C220" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D220" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E220" s="22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F220" s="23"/>
       <c r="G220" s="24"/>
@@ -15280,16 +15199,16 @@
         <v>214</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C221" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E221" s="22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F221" s="23"/>
       <c r="G221" s="24"/>
@@ -15314,16 +15233,16 @@
         <v>215</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C222" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D222" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F222" s="23"/>
       <c r="G222" s="24"/>
@@ -15348,16 +15267,16 @@
         <v>216</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C223" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E223" s="22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F223" s="23"/>
       <c r="G223" s="24"/>
@@ -15382,16 +15301,16 @@
         <v>217</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E224" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F224" s="23"/>
       <c r="G224" s="24"/>
@@ -15416,16 +15335,16 @@
         <v>218</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E225" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F225" s="23"/>
       <c r="G225" s="24"/>
@@ -15450,16 +15369,16 @@
         <v>219</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E226" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F226" s="23"/>
       <c r="G226" s="24"/>
@@ -15484,16 +15403,16 @@
         <v>220</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E227" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F227" s="23"/>
       <c r="G227" s="24"/>
@@ -15518,16 +15437,16 @@
         <v>221</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E228" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F228" s="23"/>
       <c r="G228" s="24"/>
@@ -15552,16 +15471,16 @@
         <v>222</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E229" s="22" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F229" s="23"/>
       <c r="G229" s="24"/>
@@ -15586,16 +15505,16 @@
         <v>223</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E230" s="22" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F230" s="23"/>
       <c r="G230" s="24"/>
@@ -15620,16 +15539,16 @@
         <v>224</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E231" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F231" s="23"/>
       <c r="G231" s="24"/>
@@ -15654,16 +15573,16 @@
         <v>225</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E232" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F232" s="23"/>
       <c r="G232" s="24"/>
@@ -15688,16 +15607,16 @@
         <v>226</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E233" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F233" s="23"/>
       <c r="G233" s="24"/>
@@ -15722,16 +15641,16 @@
         <v>227</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D234" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E234" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F234" s="23"/>
       <c r="G234" s="24"/>
@@ -15756,16 +15675,16 @@
         <v>228</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D235" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E235" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F235" s="23"/>
       <c r="G235" s="24"/>
@@ -15790,16 +15709,16 @@
         <v>229</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E236" s="22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F236" s="23"/>
       <c r="G236" s="24"/>
@@ -15824,16 +15743,16 @@
         <v>230</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C237" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E237" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F237" s="23"/>
       <c r="G237" s="24"/>
@@ -15858,16 +15777,16 @@
         <v>231</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C238" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E238" s="22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F238" s="23"/>
       <c r="G238" s="24"/>
@@ -15892,16 +15811,16 @@
         <v>232</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C239" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E239" s="22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F239" s="23"/>
       <c r="G239" s="24"/>
@@ -15926,16 +15845,16 @@
         <v>233</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E240" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F240" s="23"/>
       <c r="G240" s="24"/>
@@ -15960,16 +15879,16 @@
         <v>234</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E241" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F241" s="23"/>
       <c r="G241" s="24"/>
@@ -15994,16 +15913,16 @@
         <v>235</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E242" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F242" s="23"/>
       <c r="G242" s="24"/>
@@ -16028,16 +15947,16 @@
         <v>236</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C243" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E243" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F243" s="23"/>
       <c r="G243" s="24"/>
@@ -16062,16 +15981,16 @@
         <v>237</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C244" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E244" s="22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F244" s="23"/>
       <c r="G244" s="24"/>
@@ -16096,16 +16015,16 @@
         <v>238</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C245" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E245" s="22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F245" s="23"/>
       <c r="G245" s="24"/>
@@ -16130,16 +16049,16 @@
         <v>239</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C246" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E246" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F246" s="23"/>
       <c r="G246" s="24"/>
@@ -16164,16 +16083,16 @@
         <v>240</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C247" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E247" s="22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F247" s="23"/>
       <c r="G247" s="24"/>
@@ -16198,16 +16117,16 @@
         <v>241</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C248" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E248" s="22" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F248" s="23"/>
       <c r="G248" s="24"/>
@@ -16232,16 +16151,16 @@
         <v>242</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C249" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D249" s="21" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E249" s="22" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F249" s="23"/>
       <c r="G249" s="24"/>
@@ -16266,16 +16185,16 @@
         <v>243</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C250" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D250" s="21" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E250" s="22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F250" s="23"/>
       <c r="G250" s="24"/>
@@ -16300,16 +16219,16 @@
         <v>244</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C251" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D251" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E251" s="22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F251" s="23"/>
       <c r="G251" s="24"/>
@@ -16334,16 +16253,16 @@
         <v>245</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C252" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D252" s="21" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E252" s="22" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F252" s="23"/>
       <c r="G252" s="24"/>
@@ -16368,16 +16287,16 @@
         <v>246</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C253" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E253" s="22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F253" s="23"/>
       <c r="G253" s="24"/>
@@ -16402,16 +16321,16 @@
         <v>247</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C254" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D254" s="21" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E254" s="22" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F254" s="23"/>
       <c r="G254" s="24"/>
@@ -16436,16 +16355,16 @@
         <v>248</v>
       </c>
       <c r="B255" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C255" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D255" s="21" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E255" s="22" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F255" s="23"/>
       <c r="G255" s="24"/>
@@ -16470,16 +16389,16 @@
         <v>249</v>
       </c>
       <c r="B256" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C256" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E256" s="22" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F256" s="23"/>
       <c r="G256" s="24"/>
@@ -16504,16 +16423,16 @@
         <v>250</v>
       </c>
       <c r="B257" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C257" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E257" s="22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F257" s="23"/>
       <c r="G257" s="24"/>
@@ -16538,16 +16457,16 @@
         <v>251</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C258" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D258" s="21" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E258" s="22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F258" s="23"/>
       <c r="G258" s="24"/>
@@ -16572,16 +16491,16 @@
         <v>252</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C259" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E259" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F259" s="23"/>
       <c r="G259" s="24"/>
@@ -16606,16 +16525,16 @@
         <v>253</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C260" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D260" s="21" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E260" s="22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F260" s="23"/>
       <c r="G260" s="24"/>
@@ -16640,16 +16559,16 @@
         <v>254</v>
       </c>
       <c r="B261" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C261" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E261" s="22" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F261" s="23"/>
       <c r="G261" s="24"/>
@@ -16674,16 +16593,16 @@
         <v>255</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C262" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E262" s="22" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F262" s="23"/>
       <c r="G262" s="24"/>
@@ -16708,16 +16627,16 @@
         <v>256</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C263" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D263" s="21" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E263" s="22" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F263" s="23"/>
       <c r="G263" s="24"/>
@@ -16742,16 +16661,16 @@
         <v>257</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C264" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D264" s="21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E264" s="22" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F264" s="23"/>
       <c r="G264" s="24"/>
@@ -16776,16 +16695,16 @@
         <v>258</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C265" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D265" s="21" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E265" s="22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F265" s="23"/>
       <c r="G265" s="24"/>
@@ -16810,16 +16729,16 @@
         <v>259</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C266" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D266" s="21" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E266" s="22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F266" s="23"/>
       <c r="G266" s="24"/>
@@ -16844,16 +16763,16 @@
         <v>260</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D267" s="21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E267" s="22" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F267" s="23"/>
       <c r="G267" s="24"/>
@@ -16878,16 +16797,16 @@
         <v>261</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C268" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D268" s="21" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E268" s="22" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F268" s="23"/>
       <c r="G268" s="24"/>
@@ -16912,16 +16831,16 @@
         <v>262</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C269" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D269" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E269" s="22" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F269" s="23"/>
       <c r="G269" s="24"/>
@@ -16946,16 +16865,16 @@
         <v>263</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C270" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E270" s="22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F270" s="23"/>
       <c r="G270" s="24"/>
@@ -16980,16 +16899,16 @@
         <v>264</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C271" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D271" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E271" s="22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F271" s="23"/>
       <c r="G271" s="24"/>
@@ -17014,16 +16933,16 @@
         <v>265</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C272" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D272" s="21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E272" s="22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F272" s="23"/>
       <c r="G272" s="24"/>
@@ -17048,16 +16967,16 @@
         <v>266</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C273" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D273" s="21" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E273" s="22" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F273" s="23"/>
       <c r="G273" s="24"/>
@@ -17082,16 +17001,16 @@
         <v>267</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C274" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E274" s="22" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F274" s="23"/>
       <c r="G274" s="24"/>
@@ -17116,16 +17035,16 @@
         <v>268</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C275" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E275" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F275" s="23"/>
       <c r="G275" s="24"/>
@@ -17150,16 +17069,16 @@
         <v>269</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E276" s="22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F276" s="23"/>
       <c r="G276" s="24"/>
@@ -17184,16 +17103,16 @@
         <v>270</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C277" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D277" s="21" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E277" s="22" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F277" s="23"/>
       <c r="G277" s="24"/>
@@ -17218,16 +17137,16 @@
         <v>271</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C278" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D278" s="21" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E278" s="22" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F278" s="23"/>
       <c r="G278" s="24"/>
@@ -17252,16 +17171,16 @@
         <v>272</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C279" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E279" s="22" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F279" s="23"/>
       <c r="G279" s="24"/>
@@ -17286,16 +17205,16 @@
         <v>273</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C280" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E280" s="22" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F280" s="23"/>
       <c r="G280" s="24"/>
@@ -17320,16 +17239,16 @@
         <v>274</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C281" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E281" s="22" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F281" s="23"/>
       <c r="G281" s="24"/>
@@ -17354,16 +17273,16 @@
         <v>275</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C282" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E282" s="22" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F282" s="23"/>
       <c r="G282" s="24"/>
@@ -17388,16 +17307,16 @@
         <v>276</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C283" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E283" s="22" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F283" s="23"/>
       <c r="G283" s="24"/>
@@ -17422,16 +17341,16 @@
         <v>277</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C284" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E284" s="22" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F284" s="23"/>
       <c r="G284" s="24"/>
@@ -17456,16 +17375,16 @@
         <v>278</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C285" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E285" s="22" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F285" s="23"/>
       <c r="G285" s="24"/>
@@ -17490,16 +17409,16 @@
         <v>279</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C286" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E286" s="22" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F286" s="23"/>
       <c r="G286" s="24"/>
@@ -17524,16 +17443,16 @@
         <v>280</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C287" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E287" s="22" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F287" s="23"/>
       <c r="G287" s="24"/>
@@ -17558,16 +17477,16 @@
         <v>281</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C288" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E288" s="22" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F288" s="23"/>
       <c r="G288" s="24"/>
@@ -17592,16 +17511,16 @@
         <v>282</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C289" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E289" s="22" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F289" s="23"/>
       <c r="G289" s="24"/>
@@ -17626,16 +17545,16 @@
         <v>283</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C290" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E290" s="22" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F290" s="23"/>
       <c r="G290" s="24"/>
@@ -17660,16 +17579,16 @@
         <v>284</v>
       </c>
       <c r="B291" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C291" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E291" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F291" s="23"/>
       <c r="G291" s="24"/>
@@ -17694,16 +17613,16 @@
         <v>285</v>
       </c>
       <c r="B292" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C292" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D292" s="21" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E292" s="22" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F292" s="23"/>
       <c r="G292" s="24"/>
@@ -17728,16 +17647,16 @@
         <v>286</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C293" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E293" s="22" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F293" s="23"/>
       <c r="G293" s="24"/>
@@ -17762,16 +17681,16 @@
         <v>287</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C294" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E294" s="22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F294" s="23"/>
       <c r="G294" s="24"/>
@@ -17796,16 +17715,16 @@
         <v>288</v>
       </c>
       <c r="B295" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C295" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D295" s="21" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E295" s="22" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F295" s="23"/>
       <c r="G295" s="24"/>
@@ -17830,16 +17749,16 @@
         <v>289</v>
       </c>
       <c r="B296" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C296" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D296" s="21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E296" s="22" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F296" s="23"/>
       <c r="G296" s="24"/>
@@ -17864,16 +17783,16 @@
         <v>290</v>
       </c>
       <c r="B297" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C297" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E297" s="22" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F297" s="23"/>
       <c r="G297" s="24"/>
@@ -17898,16 +17817,16 @@
         <v>291</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C298" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E298" s="22" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F298" s="23"/>
       <c r="G298" s="24"/>
@@ -17932,16 +17851,16 @@
         <v>292</v>
       </c>
       <c r="B299" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C299" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D299" s="21" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E299" s="22" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F299" s="23"/>
       <c r="G299" s="24"/>
@@ -17966,16 +17885,16 @@
         <v>293</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C300" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E300" s="22" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F300" s="23"/>
       <c r="G300" s="24"/>
@@ -18000,16 +17919,16 @@
         <v>294</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C301" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E301" s="22" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F301" s="23"/>
       <c r="G301" s="24"/>
@@ -18034,16 +17953,16 @@
         <v>295</v>
       </c>
       <c r="B302" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C302" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E302" s="22" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F302" s="23"/>
       <c r="G302" s="24"/>
@@ -18068,16 +17987,16 @@
         <v>296</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C303" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E303" s="22" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F303" s="23"/>
       <c r="G303" s="24"/>
@@ -18102,16 +18021,16 @@
         <v>297</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C304" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E304" s="22" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F304" s="23"/>
       <c r="G304" s="24"/>
@@ -18136,16 +18055,16 @@
         <v>298</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C305" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E305" s="22" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F305" s="23"/>
       <c r="G305" s="24"/>
@@ -18170,16 +18089,16 @@
         <v>299</v>
       </c>
       <c r="B306" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C306" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E306" s="22" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F306" s="23"/>
       <c r="G306" s="24"/>
@@ -18204,16 +18123,16 @@
         <v>300</v>
       </c>
       <c r="B307" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C307" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E307" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F307" s="23"/>
       <c r="G307" s="24"/>
@@ -18238,16 +18157,16 @@
         <v>301</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C308" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E308" s="22" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F308" s="23"/>
       <c r="G308" s="24"/>
@@ -18272,16 +18191,16 @@
         <v>302</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C309" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E309" s="22" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F309" s="23"/>
       <c r="G309" s="24"/>
@@ -18306,16 +18225,16 @@
         <v>303</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C310" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D310" s="21" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E310" s="22" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F310" s="23"/>
       <c r="G310" s="24"/>
@@ -18340,16 +18259,16 @@
         <v>304</v>
       </c>
       <c r="B311" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C311" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E311" s="22" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F311" s="23"/>
       <c r="G311" s="24"/>
@@ -18374,16 +18293,16 @@
         <v>305</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C312" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E312" s="22" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F312" s="23"/>
       <c r="G312" s="24"/>
@@ -18408,16 +18327,16 @@
         <v>306</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C313" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E313" s="22" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F313" s="23"/>
       <c r="G313" s="24"/>
@@ -18442,16 +18361,16 @@
         <v>307</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C314" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E314" s="22" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F314" s="23"/>
       <c r="G314" s="24"/>
@@ -18476,16 +18395,16 @@
         <v>308</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C315" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E315" s="22" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F315" s="23"/>
       <c r="G315" s="24"/>
@@ -18510,16 +18429,16 @@
         <v>309</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C316" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E316" s="22" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F316" s="23"/>
       <c r="G316" s="24"/>
@@ -18544,16 +18463,16 @@
         <v>310</v>
       </c>
       <c r="B317" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C317" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E317" s="22" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F317" s="23"/>
       <c r="G317" s="24"/>
@@ -18578,16 +18497,16 @@
         <v>311</v>
       </c>
       <c r="B318" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C318" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E318" s="22" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F318" s="23"/>
       <c r="G318" s="24"/>
@@ -18612,16 +18531,16 @@
         <v>312</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C319" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E319" s="22" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F319" s="23"/>
       <c r="G319" s="24"/>
@@ -18646,16 +18565,16 @@
         <v>313</v>
       </c>
       <c r="B320" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C320" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E320" s="22" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F320" s="23"/>
       <c r="G320" s="24"/>
@@ -18680,16 +18599,16 @@
         <v>314</v>
       </c>
       <c r="B321" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C321" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E321" s="22" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F321" s="23"/>
       <c r="G321" s="24"/>
@@ -18714,16 +18633,16 @@
         <v>315</v>
       </c>
       <c r="B322" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C322" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D322" s="21" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E322" s="22" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F322" s="23"/>
       <c r="G322" s="24"/>
@@ -18748,16 +18667,16 @@
         <v>316</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C323" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D323" s="21" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E323" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F323" s="23"/>
       <c r="G323" s="24"/>
@@ -18782,16 +18701,16 @@
         <v>317</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C324" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E324" s="22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F324" s="23"/>
       <c r="G324" s="24"/>
@@ -18816,16 +18735,16 @@
         <v>318</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C325" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E325" s="22" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F325" s="23"/>
       <c r="G325" s="24"/>
@@ -18850,16 +18769,16 @@
         <v>319</v>
       </c>
       <c r="B326" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C326" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D326" s="21" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E326" s="22" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F326" s="23"/>
       <c r="G326" s="24"/>
@@ -18884,16 +18803,16 @@
         <v>320</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C327" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D327" s="21" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E327" s="22" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F327" s="23"/>
       <c r="G327" s="24"/>
@@ -18918,16 +18837,16 @@
         <v>321</v>
       </c>
       <c r="B328" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C328" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D328" s="21" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E328" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F328" s="23"/>
       <c r="G328" s="24"/>
@@ -18952,16 +18871,16 @@
         <v>322</v>
       </c>
       <c r="B329" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C329" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E329" s="22" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F329" s="23"/>
       <c r="G329" s="24"/>
@@ -18986,16 +18905,16 @@
         <v>323</v>
       </c>
       <c r="B330" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C330" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E330" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F330" s="23"/>
       <c r="G330" s="24"/>
@@ -19020,16 +18939,16 @@
         <v>324</v>
       </c>
       <c r="B331" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C331" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E331" s="22" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F331" s="23"/>
       <c r="G331" s="24"/>
@@ -19054,16 +18973,16 @@
         <v>325</v>
       </c>
       <c r="B332" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C332" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D332" s="21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F332" s="23"/>
       <c r="G332" s="24"/>
@@ -19088,16 +19007,16 @@
         <v>326</v>
       </c>
       <c r="B333" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C333" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E333" s="22" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F333" s="23"/>
       <c r="G333" s="24"/>
@@ -19122,16 +19041,16 @@
         <v>327</v>
       </c>
       <c r="B334" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C334" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D334" s="21" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E334" s="22" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F334" s="23"/>
       <c r="G334" s="24"/>
@@ -19156,16 +19075,16 @@
         <v>328</v>
       </c>
       <c r="B335" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C335" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D335" s="21" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E335" s="22" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F335" s="23"/>
       <c r="G335" s="24"/>
@@ -19190,16 +19109,16 @@
         <v>329</v>
       </c>
       <c r="B336" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C336" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E336" s="22" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F336" s="23"/>
       <c r="G336" s="24"/>
@@ -19224,16 +19143,16 @@
         <v>330</v>
       </c>
       <c r="B337" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C337" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E337" s="22" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F337" s="23"/>
       <c r="G337" s="24"/>
@@ -19258,16 +19177,16 @@
         <v>331</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C338" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E338" s="22" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F338" s="23"/>
       <c r="G338" s="24"/>
@@ -19292,16 +19211,16 @@
         <v>332</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C339" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D339" s="21" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E339" s="22" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F339" s="23"/>
       <c r="G339" s="24"/>
@@ -19326,16 +19245,16 @@
         <v>333</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C340" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D340" s="21" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E340" s="22" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F340" s="23"/>
       <c r="G340" s="24"/>
@@ -19360,16 +19279,16 @@
         <v>334</v>
       </c>
       <c r="B341" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C341" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E341" s="22" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F341" s="23"/>
       <c r="G341" s="24"/>
@@ -19394,16 +19313,16 @@
         <v>335</v>
       </c>
       <c r="B342" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C342" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E342" s="22" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F342" s="23"/>
       <c r="G342" s="24"/>
@@ -19428,16 +19347,16 @@
         <v>336</v>
       </c>
       <c r="B343" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C343" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E343" s="22" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F343" s="23"/>
       <c r="G343" s="24"/>
@@ -19462,16 +19381,16 @@
         <v>337</v>
       </c>
       <c r="B344" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C344" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E344" s="22" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F344" s="23"/>
       <c r="G344" s="24"/>
@@ -19496,16 +19415,16 @@
         <v>338</v>
       </c>
       <c r="B345" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C345" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E345" s="22" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F345" s="23"/>
       <c r="G345" s="24"/>
@@ -19530,16 +19449,16 @@
         <v>339</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C346" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D346" s="21" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E346" s="22" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F346" s="23"/>
       <c r="G346" s="24"/>
@@ -19564,16 +19483,16 @@
         <v>340</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C347" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D347" s="21" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E347" s="22" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F347" s="23"/>
       <c r="G347" s="24"/>
@@ -19598,16 +19517,16 @@
         <v>341</v>
       </c>
       <c r="B348" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C348" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D348" s="21" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E348" s="22" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F348" s="23"/>
       <c r="G348" s="24"/>
@@ -19632,16 +19551,16 @@
         <v>342</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C349" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D349" s="21" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E349" s="22" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F349" s="23"/>
       <c r="G349" s="24"/>
@@ -19666,16 +19585,16 @@
         <v>343</v>
       </c>
       <c r="B350" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C350" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D350" s="21" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E350" s="22" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F350" s="23"/>
       <c r="G350" s="24"/>
@@ -19700,16 +19619,16 @@
         <v>344</v>
       </c>
       <c r="B351" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C351" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D351" s="21" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E351" s="22" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F351" s="23"/>
       <c r="G351" s="24"/>
@@ -19734,16 +19653,16 @@
         <v>345</v>
       </c>
       <c r="B352" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C352" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D352" s="21" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E352" s="22" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F352" s="23"/>
       <c r="G352" s="24"/>
@@ -19768,16 +19687,16 @@
         <v>346</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C353" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D353" s="21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E353" s="22" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F353" s="23"/>
       <c r="G353" s="24"/>
@@ -19802,16 +19721,16 @@
         <v>347</v>
       </c>
       <c r="B354" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C354" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D354" s="21" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E354" s="22" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F354" s="23"/>
       <c r="G354" s="24"/>
@@ -19836,16 +19755,16 @@
         <v>348</v>
       </c>
       <c r="B355" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C355" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D355" s="21" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E355" s="22" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F355" s="23"/>
       <c r="G355" s="24"/>
@@ -19870,16 +19789,16 @@
         <v>349</v>
       </c>
       <c r="B356" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C356" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D356" s="21" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E356" s="22" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F356" s="23"/>
       <c r="G356" s="24"/>
@@ -19904,16 +19823,16 @@
         <v>350</v>
       </c>
       <c r="B357" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C357" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D357" s="21" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E357" s="22" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F357" s="23"/>
       <c r="G357" s="24"/>
@@ -19938,16 +19857,16 @@
         <v>351</v>
       </c>
       <c r="B358" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C358" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D358" s="21" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E358" s="22" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F358" s="23"/>
       <c r="G358" s="24"/>
@@ -19972,16 +19891,16 @@
         <v>352</v>
       </c>
       <c r="B359" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C359" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D359" s="21" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E359" s="22" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F359" s="23"/>
       <c r="G359" s="24"/>
@@ -20006,16 +19925,16 @@
         <v>353</v>
       </c>
       <c r="B360" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C360" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D360" s="21" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E360" s="22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F360" s="23"/>
       <c r="G360" s="24"/>
@@ -20040,16 +19959,16 @@
         <v>354</v>
       </c>
       <c r="B361" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C361" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D361" s="21" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E361" s="22" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F361" s="23"/>
       <c r="G361" s="24"/>
@@ -20074,16 +19993,16 @@
         <v>355</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C362" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D362" s="21" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E362" s="22" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F362" s="23"/>
       <c r="G362" s="24"/>
@@ -20108,16 +20027,16 @@
         <v>356</v>
       </c>
       <c r="B363" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C363" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D363" s="21" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E363" s="22" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F363" s="23"/>
       <c r="G363" s="24"/>
@@ -20142,16 +20061,16 @@
         <v>357</v>
       </c>
       <c r="B364" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C364" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D364" s="21" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E364" s="22" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F364" s="23"/>
       <c r="G364" s="24"/>
@@ -20176,16 +20095,16 @@
         <v>358</v>
       </c>
       <c r="B365" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C365" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D365" s="21" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E365" s="22" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F365" s="23"/>
       <c r="G365" s="24"/>
@@ -20210,16 +20129,16 @@
         <v>359</v>
       </c>
       <c r="B366" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C366" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D366" s="21" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E366" s="22" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F366" s="23"/>
       <c r="G366" s="24"/>
@@ -20244,16 +20163,16 @@
         <v>360</v>
       </c>
       <c r="B367" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C367" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D367" s="21" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E367" s="22" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F367" s="23"/>
       <c r="G367" s="24"/>
@@ -20278,16 +20197,16 @@
         <v>361</v>
       </c>
       <c r="B368" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C368" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D368" s="21" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E368" s="22" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F368" s="23"/>
       <c r="G368" s="24"/>
@@ -20312,16 +20231,16 @@
         <v>362</v>
       </c>
       <c r="B369" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C369" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D369" s="21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E369" s="22" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F369" s="23"/>
       <c r="G369" s="24"/>
@@ -20346,16 +20265,16 @@
         <v>363</v>
       </c>
       <c r="B370" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C370" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D370" s="21" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E370" s="22" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F370" s="23"/>
       <c r="G370" s="24"/>
@@ -20380,16 +20299,16 @@
         <v>364</v>
       </c>
       <c r="B371" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C371" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D371" s="21" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E371" s="22" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F371" s="23"/>
       <c r="G371" s="24"/>
@@ -20414,16 +20333,16 @@
         <v>365</v>
       </c>
       <c r="B372" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C372" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D372" s="21" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E372" s="22" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F372" s="23"/>
       <c r="G372" s="24"/>
@@ -20448,16 +20367,16 @@
         <v>366</v>
       </c>
       <c r="B373" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C373" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D373" s="21" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E373" s="22" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F373" s="23"/>
       <c r="G373" s="24"/>
@@ -20482,16 +20401,16 @@
         <v>367</v>
       </c>
       <c r="B374" s="21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C374" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D374" s="21" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E374" s="22" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F374" s="23"/>
       <c r="G374" s="24"/>
@@ -20522,10 +20441,10 @@
         <v>45</v>
       </c>
       <c r="D375" s="21" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E375" s="22" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F375" s="23"/>
       <c r="G375" s="24"/>
@@ -20556,10 +20475,10 @@
         <v>57</v>
       </c>
       <c r="D376" s="21" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E376" s="22" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F376" s="23"/>
       <c r="G376" s="24"/>
@@ -20590,10 +20509,10 @@
         <v>66</v>
       </c>
       <c r="D377" s="21" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E377" s="22" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F377" s="23"/>
       <c r="G377" s="24"/>
@@ -20624,10 +20543,10 @@
         <v>75</v>
       </c>
       <c r="D378" s="21" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E378" s="22" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F378" s="23"/>
       <c r="G378" s="24"/>
@@ -20658,10 +20577,10 @@
         <v>84</v>
       </c>
       <c r="D379" s="21" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E379" s="22" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F379" s="23"/>
       <c r="G379" s="24"/>
@@ -20692,10 +20611,10 @@
         <v>93</v>
       </c>
       <c r="D380" s="21" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E380" s="22" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F380" s="23"/>
       <c r="G380" s="24"/>
@@ -20726,30 +20645,30 @@
         <v>112</v>
       </c>
       <c r="D381" s="21" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E381" s="22" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F381" s="33">
         <v>45436</v>
       </c>
       <c r="G381" s="34" t="s">
-        <v>891</v>
-      </c>
-      <c r="H381" s="50" t="s">
-        <v>860</v>
-      </c>
-      <c r="I381" s="50" t="s">
-        <v>861</v>
+        <v>884</v>
+      </c>
+      <c r="H381" s="38" t="s">
+        <v>857</v>
+      </c>
+      <c r="I381" s="38" t="s">
+        <v>858</v>
       </c>
       <c r="J381" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K381" s="25"/>
       <c r="L381" s="25"/>
       <c r="M381" s="25"/>
-      <c r="N381" s="51"/>
+      <c r="N381" s="39"/>
       <c r="O381" s="25"/>
       <c r="P381" s="25"/>
       <c r="Q381" s="25"/>
@@ -20770,10 +20689,10 @@
         <v>107</v>
       </c>
       <c r="D382" s="21" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E382" s="22" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F382" s="23"/>
       <c r="G382" s="24"/>
@@ -20804,10 +20723,10 @@
         <v>45</v>
       </c>
       <c r="D383" s="21" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E383" s="22" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F383" s="23"/>
       <c r="G383" s="24"/>
@@ -25551,10 +25470,10 @@
         <v>25</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25562,13 +25481,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>797</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25576,13 +25495,13 @@
         <v>57</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25590,13 +25509,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25604,13 +25523,13 @@
         <v>75</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25618,13 +25537,13 @@
         <v>84</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -25632,13 +25551,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -25646,13 +25565,13 @@
         <v>112</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>797</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>810</v>
+        <v>795</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>808</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -25660,27 +25579,27 @@
         <v>107</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>814</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>797</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>815</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25688,13 +25607,13 @@
         <v>45</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C11" s="30">
         <v>192</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25702,13 +25621,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C12" s="30">
         <v>208</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25716,13 +25635,13 @@
         <v>66</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C13" s="30">
         <v>224</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25730,13 +25649,13 @@
         <v>75</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C14" s="30">
         <v>240</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25744,13 +25663,13 @@
         <v>84</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C15" s="30">
         <v>256</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25758,13 +25677,13 @@
         <v>93</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C16" s="30">
         <v>272</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25772,13 +25691,13 @@
         <v>112</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C17" s="30">
         <v>288</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25786,13 +25705,13 @@
         <v>107</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C18" s="30">
         <v>304</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25800,13 +25719,13 @@
         <v>45</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C19" s="30">
         <v>193</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25814,13 +25733,13 @@
         <v>57</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C20" s="30">
         <v>209</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25828,13 +25747,13 @@
         <v>66</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C21" s="30">
         <v>225</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25842,13 +25761,13 @@
         <v>75</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C22" s="30">
         <v>241</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25856,13 +25775,13 @@
         <v>84</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C23" s="30">
         <v>257</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25870,13 +25789,13 @@
         <v>93</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C24" s="30">
         <v>273</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25884,13 +25803,13 @@
         <v>112</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C25" s="30">
         <v>289</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25898,13 +25817,13 @@
         <v>107</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C26" s="30">
         <v>305</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25912,13 +25831,13 @@
         <v>45</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C27" s="30">
         <v>194</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25926,13 +25845,13 @@
         <v>57</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C28" s="30">
         <v>210</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25940,13 +25859,13 @@
         <v>66</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C29" s="30">
         <v>226</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25954,13 +25873,13 @@
         <v>75</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C30" s="30">
         <v>242</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25968,13 +25887,13 @@
         <v>84</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C31" s="30">
         <v>258</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25982,13 +25901,13 @@
         <v>93</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C32" s="30">
         <v>274</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25996,13 +25915,13 @@
         <v>112</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C33" s="30">
         <v>290</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26010,13 +25929,13 @@
         <v>107</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C34" s="30">
         <v>306</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26024,7 +25943,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C35" s="30">
         <v>195</v>
@@ -26038,7 +25957,7 @@
         <v>57</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C36" s="30">
         <v>211</v>
@@ -26052,7 +25971,7 @@
         <v>66</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C37" s="30">
         <v>227</v>
@@ -26066,7 +25985,7 @@
         <v>75</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C38" s="30">
         <v>243</v>
@@ -26080,7 +25999,7 @@
         <v>84</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C39" s="30">
         <v>259</v>
@@ -26094,7 +26013,7 @@
         <v>93</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C40" s="30">
         <v>275</v>
@@ -26108,7 +26027,7 @@
         <v>112</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C41" s="30">
         <v>291</v>
@@ -26122,7 +26041,7 @@
         <v>107</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C42" s="30">
         <v>307</v>
@@ -26136,7 +26055,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C43" s="30">
         <v>196</v>
@@ -26150,7 +26069,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C44" s="30">
         <v>212</v>
@@ -26164,7 +26083,7 @@
         <v>66</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C45" s="30">
         <v>228</v>
@@ -26178,7 +26097,7 @@
         <v>75</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C46" s="30">
         <v>244</v>
@@ -26192,7 +26111,7 @@
         <v>84</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C47" s="30">
         <v>260</v>
@@ -26206,7 +26125,7 @@
         <v>93</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C48" s="30">
         <v>276</v>
@@ -26220,7 +26139,7 @@
         <v>112</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C49" s="30">
         <v>292</v>
@@ -26234,7 +26153,7 @@
         <v>107</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C50" s="30">
         <v>308</v>
@@ -27234,18 +27153,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/GATEWAY/A1#111SOLXX/SOL_SPA/BIOMANAGEMENT/V.3.1.0/accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111SOLXX/SOL_SPA/BIOMANAGEMENT/V.3.1.0/accreditamento-checklist_V8.1.3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\GitHubDev\FSE\GATEWAY\A1#111SOLXX\SOL_SPA\BIOMANAGEMENT\V.3.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F025923-DA50-48E0-B685-A57238877E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD4F65D-DF65-4067-A08F-8EFC4286CB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="892">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4521,15 +4521,9 @@
     <t>-</t>
   </si>
   <si>
-    <t>Gestito dal supporto tecnico.</t>
-  </si>
-  <si>
     <t>Server non raggiungibile</t>
   </si>
   <si>
-    <t>L'utente potrà rieffettuare l'invio una volta ristabilita la connessione</t>
-  </si>
-  <si>
     <t>f30fa39ef6be7b2e</t>
   </si>
   <si>
@@ -4630,6 +4624,15 @@
   </si>
   <si>
     <t>action_id non valido</t>
+  </si>
+  <si>
+    <t>In produzione, non può verificarsi il caso di una richiesta con un token senza campi obbligatori</t>
+  </si>
+  <si>
+    <t>Il data.json viene costruito dal software su parametri prestabiliti (nello pecifico, non può verificarsi il caso di un action_id non valido).</t>
+  </si>
+  <si>
+    <t>Il software effettua l'invio del referto al repository in automatico, a seguito della firma del medico. Il processo è eseguito da un worker indipendente che a ogni intervallo di tempo (configurabile) controlla se ci sono referti firmati da inviare al repository (controllando lo stato del referto) e effettuando la chiamata. Sull'interfaccia del software è visibile lo stato del referto (validato-firmato-archiviato) e i possibili errori derivanti dal processo di invio.</t>
   </si>
 </sst>
 </file>
@@ -7573,10 +7576,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8836,13 +8839,13 @@
         <v>45440</v>
       </c>
       <c r="G39" s="34" t="s">
+        <v>883</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>884</v>
+      </c>
+      <c r="I39" s="38" t="s">
         <v>885</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>886</v>
-      </c>
-      <c r="I39" s="38" t="s">
-        <v>887</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>137</v>
@@ -8855,13 +8858,13 @@
         <v>846</v>
       </c>
       <c r="N39" s="39" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="O39" s="39" t="s">
         <v>137</v>
       </c>
       <c r="P39" s="39" t="s">
-        <v>854</v>
+        <v>889</v>
       </c>
       <c r="Q39" s="25"/>
       <c r="R39" s="26"/>
@@ -9128,13 +9131,13 @@
         <v>45440</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="J47" s="25" t="s">
         <v>137</v>
@@ -9147,13 +9150,13 @@
         <v>846</v>
       </c>
       <c r="N47" s="39" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="O47" s="39" t="s">
         <v>137</v>
       </c>
       <c r="P47" s="39" t="s">
-        <v>854</v>
+        <v>890</v>
       </c>
       <c r="Q47" s="25"/>
       <c r="R47" s="26"/>
@@ -9408,7 +9411,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>48</v>
       </c>
@@ -9428,7 +9431,7 @@
         <v>45436</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H55" s="38" t="s">
         <v>853</v>
@@ -9447,13 +9450,13 @@
         <v>137</v>
       </c>
       <c r="N55" s="39" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O55" s="39" t="s">
         <v>137</v>
       </c>
       <c r="P55" s="39" t="s">
-        <v>856</v>
+        <v>891</v>
       </c>
       <c r="Q55" s="25"/>
       <c r="R55" s="26"/>
@@ -12820,7 +12823,7 @@
         <v>45436</v>
       </c>
       <c r="G154" s="34" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H154" s="38" t="s">
         <v>851</v>
@@ -12864,13 +12867,13 @@
         <v>45437</v>
       </c>
       <c r="G155" s="34" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H155" s="38" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J155" s="25" t="s">
         <v>137</v>
@@ -12908,13 +12911,13 @@
         <v>45436</v>
       </c>
       <c r="G156" s="34" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H156" s="38" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I156" s="38" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J156" s="25" t="s">
         <v>137</v>
@@ -12952,13 +12955,13 @@
         <v>45437</v>
       </c>
       <c r="G157" s="34" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="H157" s="24" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I157" s="24" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J157" s="25" t="s">
         <v>137</v>
@@ -13000,7 +13003,7 @@
         <v>846</v>
       </c>
       <c r="K158" s="39" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="L158" s="25"/>
       <c r="M158" s="25"/>
@@ -13038,7 +13041,7 @@
         <v>846</v>
       </c>
       <c r="K159" s="39" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="L159" s="25"/>
       <c r="M159" s="25"/>
@@ -13076,7 +13079,7 @@
         <v>846</v>
       </c>
       <c r="K160" s="39" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="L160" s="25"/>
       <c r="M160" s="25"/>
@@ -13114,7 +13117,7 @@
         <v>846</v>
       </c>
       <c r="K161" s="39" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="L161" s="25"/>
       <c r="M161" s="25"/>
@@ -13152,7 +13155,7 @@
         <v>846</v>
       </c>
       <c r="K162" s="39" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="L162" s="25"/>
       <c r="M162" s="25"/>
@@ -13190,7 +13193,7 @@
         <v>846</v>
       </c>
       <c r="K163" s="39" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="L163" s="25"/>
       <c r="M163" s="25"/>
@@ -13228,7 +13231,7 @@
         <v>846</v>
       </c>
       <c r="K164" s="39" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
@@ -13266,7 +13269,7 @@
         <v>846</v>
       </c>
       <c r="K165" s="39" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="L165" s="25"/>
       <c r="M165" s="25"/>
@@ -13304,7 +13307,7 @@
         <v>846</v>
       </c>
       <c r="K166" s="39" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="L166" s="25"/>
       <c r="M166" s="25"/>
@@ -13342,7 +13345,7 @@
         <v>846</v>
       </c>
       <c r="K167" s="39" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="L167" s="25"/>
       <c r="M167" s="25"/>
@@ -13380,7 +13383,7 @@
         <v>846</v>
       </c>
       <c r="K168" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="L168" s="25"/>
       <c r="M168" s="25"/>
@@ -13418,7 +13421,7 @@
         <v>846</v>
       </c>
       <c r="K169" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
@@ -13456,7 +13459,7 @@
         <v>846</v>
       </c>
       <c r="K170" s="39" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="L170" s="25"/>
       <c r="M170" s="25"/>
@@ -13494,7 +13497,7 @@
         <v>846</v>
       </c>
       <c r="K171" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
@@ -13532,7 +13535,7 @@
         <v>846</v>
       </c>
       <c r="K172" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
@@ -13570,7 +13573,7 @@
         <v>846</v>
       </c>
       <c r="K173" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
@@ -13608,7 +13611,7 @@
         <v>846</v>
       </c>
       <c r="K174" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
@@ -13646,7 +13649,7 @@
         <v>846</v>
       </c>
       <c r="K175" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="L175" s="25"/>
       <c r="M175" s="25"/>
@@ -13684,7 +13687,7 @@
         <v>846</v>
       </c>
       <c r="K176" s="39" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="L176" s="25"/>
       <c r="M176" s="25"/>
@@ -20654,13 +20657,13 @@
         <v>45436</v>
       </c>
       <c r="G381" s="34" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H381" s="38" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I381" s="38" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>137</v>
